--- a/schema/rpoc/excel/rpoc.xlsx
+++ b/schema/rpoc/excel/rpoc.xlsx
@@ -11,14 +11,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Role" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Place" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concept" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interaction" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EmploymentEvent" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Container" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Membership" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Place" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concept" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interaction" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EmploymentEvent" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Container" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,6 +466,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -510,7 +552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -556,13 +598,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +629,11 @@
         </is>
       </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>memberships</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>organizations</t>
         </is>
@@ -750,54 +797,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>role_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>role_type</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>start_date</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>start_date</t>
+          <t>end_date</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>aliases</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"permanent,enabling,temporary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -811,6 +853,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -866,7 +954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -902,7 +990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,45 +1065,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/schema/rpoc/excel/rpoc.xlsx
+++ b/schema/rpoc/excel/rpoc.xlsx
@@ -16,10 +16,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Place" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concept" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interaction" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EmploymentEvent" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Container" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interaction" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EmploymentEvent" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,245 +465,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>obsoleted_by</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>employed_at</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_current</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>current_address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>nick</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>avatar</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_employment_history</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>aliases</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>obsoleted_by</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>employed_at</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_current</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>roles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>memberships</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_employment_history</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>aliases</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>image</t>
         </is>
@@ -853,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,6 +845,11 @@
           <t>end_date</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schema/rpoc/excel/rpoc.xlsx
+++ b/schema/rpoc/excel/rpoc.xlsx
@@ -593,203 +593,198 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>primary_email</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nick</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>avatar</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_employment_history</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>aliases</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>purpose_statement</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>start_date</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>current_address</t>
+          <t>end_date</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>nick</t>
+          <t>aliases</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>avatar</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>has_employment_history</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>aliases</t>
+          <t>description</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>role_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"nonbinary man,nonbinary woman,transgender woman,transgender man,cisgender man,cisgender woman"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>mission_statement</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>start_date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>end_date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>aliases</t>
+          <t>status</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>role_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>role_type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>aliases</t>
         </is>
@@ -811,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +842,11 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
